--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="326">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -88,904 +88,913 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.991+/-0.0</t>
   </si>
   <si>
     <t>0.794+/-0.0</t>
   </si>
   <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>0.975+/-0.021</t>
-  </si>
-  <si>
-    <t>0.465+/-0.053</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.982+/-0.022</t>
-  </si>
-  <si>
-    <t>0.156+/-0.047</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.991+/-0.017</t>
+  </si>
+  <si>
+    <t>0.465+/-0.065</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>0.965+/-0.018</t>
+  </si>
+  <si>
+    <t>0.143+/-0.036</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.005+/-0.004</t>
   </si>
   <si>
     <t>0.8+/-0.001</t>
   </si>
   <si>
-    <t>0.796</t>
+    <t>0.795</t>
   </si>
   <si>
     <t>0.54+/-0.02</t>
   </si>
   <si>
-    <t>0.514+/-0.074</t>
+    <t>0.51+/-0.081</t>
   </si>
   <si>
     <t>0.333</t>
   </si>
   <si>
-    <t>0.049+/-0.017</t>
-  </si>
-  <si>
-    <t>0.047+/-0.021</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.162+/-0.018</t>
-  </si>
-  <si>
-    <t>0.618+/-0.016</t>
-  </si>
-  <si>
-    <t>0.617+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.279+/-0.005</t>
-  </si>
-  <si>
-    <t>0.278+/-0.015</t>
+    <t>0.051+/-0.017</t>
+  </si>
+  <si>
+    <t>0.049+/-0.025</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.279+/-0.054</t>
+  </si>
+  <si>
+    <t>0.608+/-0.019</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.275+/-0.006</t>
+  </si>
+  <si>
+    <t>0.274+/-0.016</t>
   </si>
   <si>
     <t>0.257</t>
   </si>
   <si>
-    <t>0.565+/-0.03</t>
-  </si>
-  <si>
-    <t>0.562+/-0.038</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703+/-0.004</t>
+    <t>0.574+/-0.03</t>
+  </si>
+  <si>
+    <t>0.577+/-0.031</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.009+/-0.004</t>
+  </si>
+  <si>
+    <t>0.704+/-0.005</t>
   </si>
   <si>
     <t>0.702+/-0.0</t>
   </si>
   <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.299+/-0.003</t>
-  </si>
-  <si>
-    <t>0.299+/-0.03</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.357+/-0.018</t>
-  </si>
-  <si>
-    <t>0.352+/-0.028</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.008+/-0.002</t>
-  </si>
-  <si>
-    <t>0.841+/-0.006</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.781</t>
-  </si>
-  <si>
-    <t>0.745+/-0.053</t>
-  </si>
-  <si>
-    <t>0.408+/-0.046</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.326+/-0.061</t>
-  </si>
-  <si>
-    <t>0.176+/-0.037</t>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t>3.468+/-0.741</t>
-  </si>
-  <si>
-    <t>0.852+/-0.004</t>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.304+/-0.003</t>
+  </si>
+  <si>
+    <t>0.301+/-0.03</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>0.366+/-0.018</t>
+  </si>
+  <si>
+    <t>0.362+/-0.033</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.009+/-0.002</t>
+  </si>
+  <si>
+    <t>0.84+/-0.005</t>
+  </si>
+  <si>
+    <t>0.785+/-0.0</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.703+/-0.029</t>
+  </si>
+  <si>
+    <t>0.436+/-0.048</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.366+/-0.065</t>
+  </si>
+  <si>
+    <t>0.219+/-0.045</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>7.904+/-1.54</t>
+  </si>
+  <si>
+    <t>0.855+/-0.004</t>
   </si>
   <si>
     <t>0.777+/-0.0</t>
   </si>
   <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.841+/-0.042</t>
-  </si>
-  <si>
-    <t>0.365+/-0.048</t>
+    <t>0.847+/-0.032</t>
+  </si>
+  <si>
+    <t>0.364+/-0.047</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.342+/-0.026</t>
+  </si>
+  <si>
+    <t>0.145+/-0.032</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.103+/-0.003</t>
+  </si>
+  <si>
+    <t>0.848+/-0.004</t>
+  </si>
+  <si>
+    <t>0.778+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.819+/-0.035</t>
+  </si>
+  <si>
+    <t>0.372+/-0.063</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.316+/-0.026</t>
+  </si>
+  <si>
+    <t>0.145+/-0.035</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.129+/-0.006</t>
+  </si>
+  <si>
+    <t>0.808+/-0.001</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706+/-0.057</t>
+  </si>
+  <si>
+    <t>0.538+/-0.097</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.082+/-0.021</t>
+  </si>
+  <si>
+    <t>0.066+/-0.032</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>17.209+/-0.955</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.992+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.994+/-0.018</t>
+  </si>
+  <si>
+    <t>0.467+/-0.084</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.953+/-0.016</t>
+  </si>
+  <si>
+    <t>0.106+/-0.033</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.466+/-0.036</t>
+  </si>
+  <si>
+    <t>0.546+/-0.311</t>
+  </si>
+  <si>
+    <t>0.022+/-0.005</t>
+  </si>
+  <si>
+    <t>0.021+/-0.014</t>
+  </si>
+  <si>
+    <t>0.314+/-0.037</t>
+  </si>
+  <si>
+    <t>0.689+/-0.008</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.241+/-0.003</t>
+  </si>
+  <si>
+    <t>0.239+/-0.026</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.499+/-0.014</t>
+  </si>
+  <si>
+    <t>0.493+/-0.04</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.739+/-0.004</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.241+/-0.005</t>
+  </si>
+  <si>
+    <t>0.241+/-0.031</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.344+/-0.014</t>
+  </si>
+  <si>
+    <t>0.344+/-0.046</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.878+/-0.006</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.76+/-0.039</t>
+  </si>
+  <si>
+    <t>0.362+/-0.078</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.275+/-0.073</t>
+  </si>
+  <si>
+    <t>0.128+/-0.04</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>6.257+/-2.521</t>
+  </si>
+  <si>
+    <t>0.891+/-0.005</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.904+/-0.046</t>
+  </si>
+  <si>
+    <t>0.359+/-0.067</t>
+  </si>
+  <si>
+    <t>0.309+/-0.038</t>
+  </si>
+  <si>
+    <t>0.12+/-0.035</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.092+/-0.006</t>
+  </si>
+  <si>
+    <t>0.892+/-0.003</t>
+  </si>
+  <si>
+    <t>0.831+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.902+/-0.031</t>
+  </si>
+  <si>
+    <t>0.323+/-0.044</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.316+/-0.027</t>
+  </si>
+  <si>
+    <t>0.11+/-0.022</t>
+  </si>
+  <si>
+    <t>0.108+/-0.005</t>
+  </si>
+  <si>
+    <t>0.855+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.741+/-0.05</t>
+  </si>
+  <si>
+    <t>0.538+/-0.257</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.051+/-0.007</t>
+  </si>
+  <si>
+    <t>0.031+/-0.01</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>12.536+/-1.129</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.399+/-0.046</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.991+/-0.001</t>
+  </si>
+  <si>
+    <t>0.148+/-0.022</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.725+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.546+/-0.022</t>
+  </si>
+  <si>
+    <t>0.508+/-0.094</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.045+/-0.005</t>
+  </si>
+  <si>
+    <t>0.042+/-0.012</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.126+/-0.024</t>
+  </si>
+  <si>
+    <t>0.691+/-0.002</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.399+/-0.004</t>
+  </si>
+  <si>
+    <t>0.4+/-0.03</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.232+/-0.006</t>
+  </si>
+  <si>
+    <t>0.229+/-0.018</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631+/-0.001</t>
+  </si>
+  <si>
+    <t>0.63+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.342+/-0.003</t>
+  </si>
+  <si>
+    <t>0.341+/-0.022</t>
+  </si>
+  <si>
+    <t>0.361+/-0.008</t>
+  </si>
+  <si>
+    <t>0.358+/-0.021</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.774+/-0.009</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.719+/-0.034</t>
+  </si>
+  <si>
+    <t>0.418+/-0.041</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.306+/-0.043</t>
+  </si>
+  <si>
+    <t>0.176+/-0.033</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>5.106+/-0.892</t>
+  </si>
+  <si>
+    <t>0.813+/-0.008</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.883+/-0.02</t>
+  </si>
+  <si>
+    <t>0.35+/-0.038</t>
   </si>
   <si>
     <t>0.397</t>
   </si>
   <si>
-    <t>0.33+/-0.031</t>
-  </si>
-  <si>
-    <t>0.14+/-0.024</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.08+/-0.003</t>
-  </si>
-  <si>
-    <t>0.848+/-0.003</t>
-  </si>
-  <si>
-    <t>0.838+/-0.045</t>
-  </si>
-  <si>
-    <t>0.383+/-0.043</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.308+/-0.032</t>
-  </si>
-  <si>
-    <t>0.138+/-0.042</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>0.105+/-0.003</t>
-  </si>
-  <si>
-    <t>0.808+/-0.001</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706+/-0.059</t>
-  </si>
-  <si>
-    <t>0.537+/-0.098</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.081+/-0.021</t>
-  </si>
-  <si>
-    <t>0.065+/-0.032</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>10.777+/-1.053</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.992+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.994+/-0.018</t>
-  </si>
-  <si>
-    <t>0.468+/-0.044</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.953+/-0.016</t>
-  </si>
-  <si>
-    <t>0.095+/-0.024</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.85+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.477+/-0.036</t>
-  </si>
-  <si>
-    <t>0.554+/-0.3</t>
-  </si>
-  <si>
-    <t>0.023+/-0.004</t>
-  </si>
-  <si>
-    <t>0.022+/-0.013</t>
-  </si>
-  <si>
-    <t>0.18+/-0.024</t>
-  </si>
-  <si>
-    <t>0.696+/-0.007</t>
+    <t>0.376+/-0.035</t>
+  </si>
+  <si>
+    <t>0.154+/-0.025</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.084+/-0.006</t>
+  </si>
+  <si>
+    <t>0.79+/-0.004</t>
   </si>
   <si>
     <t>0.696+/-0.0</t>
   </si>
   <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.245+/-0.003</t>
-  </si>
-  <si>
-    <t>0.245+/-0.026</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.493+/-0.013</t>
-  </si>
-  <si>
-    <t>0.492+/-0.04</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.743+/-0.004</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.242+/-0.003</t>
-  </si>
-  <si>
-    <t>0.24+/-0.034</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.334+/-0.013</t>
-  </si>
-  <si>
-    <t>0.33+/-0.047</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.875+/-0.003</t>
-  </si>
-  <si>
-    <t>0.829+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.726+/-0.059</t>
-  </si>
-  <si>
-    <t>0.329+/-0.093</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.283+/-0.056</t>
-  </si>
-  <si>
-    <t>0.119+/-0.038</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>2.939+/-0.535</t>
-  </si>
-  <si>
-    <t>0.892+/-0.005</t>
-  </si>
-  <si>
-    <t>0.836+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.894+/-0.044</t>
-  </si>
-  <si>
-    <t>0.357+/-0.045</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.317+/-0.034</t>
-  </si>
-  <si>
-    <t>0.118+/-0.026</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.064+/-0.004</t>
-  </si>
-  <si>
-    <t>0.891+/-0.002</t>
-  </si>
-  <si>
-    <t>0.83+/-0.0</t>
-  </si>
-  <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.898+/-0.033</t>
-  </si>
-  <si>
-    <t>0.312+/-0.072</t>
-  </si>
-  <si>
-    <t>0.307+/-0.021</t>
-  </si>
-  <si>
-    <t>0.107+/-0.035</t>
-  </si>
-  <si>
-    <t>0.075+/-0.005</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
-    <t>0.746+/-0.044</t>
-  </si>
-  <si>
-    <t>0.535+/-0.258</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.05+/-0.008</t>
-  </si>
-  <si>
-    <t>0.031+/-0.01</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>8.426+/-0.103</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.392+/-0.045</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.991+/-0.001</t>
-  </si>
-  <si>
-    <t>0.143+/-0.015</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.726+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.558+/-0.014</t>
-  </si>
-  <si>
-    <t>0.531+/-0.111</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.047+/-0.004</t>
-  </si>
-  <si>
-    <t>0.045+/-0.014</t>
-  </si>
-  <si>
-    <t>0.093+/-0.016</t>
-  </si>
-  <si>
-    <t>0.689+/-0.002</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.394+/-0.004</t>
-  </si>
-  <si>
-    <t>0.39+/-0.032</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.231+/-0.007</t>
-  </si>
-  <si>
-    <t>0.228+/-0.02</t>
-  </si>
-  <si>
-    <t>0.214</t>
-  </si>
-  <si>
-    <t>0.633+/-0.001</t>
-  </si>
-  <si>
-    <t>0.632+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.345+/-0.001</t>
-  </si>
-  <si>
-    <t>0.343+/-0.019</t>
-  </si>
-  <si>
-    <t>0.36+/-0.006</t>
-  </si>
-  <si>
-    <t>0.355+/-0.017</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.771+/-0.01</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.742+/-0.067</t>
-  </si>
-  <si>
-    <t>0.42+/-0.044</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.273+/-0.05</t>
-  </si>
-  <si>
-    <t>0.146+/-0.041</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>2.74+/-0.763</t>
-  </si>
-  <si>
-    <t>0.814+/-0.009</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.883+/-0.028</t>
-  </si>
-  <si>
-    <t>0.344+/-0.034</t>
-  </si>
-  <si>
-    <t>0.379+/-0.043</t>
-  </si>
-  <si>
-    <t>0.152+/-0.03</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.062+/-0.004</t>
-  </si>
-  <si>
-    <t>0.792+/-0.005</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.815+/-0.032</t>
-  </si>
-  <si>
-    <t>0.378+/-0.037</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.325+/-0.018</t>
-  </si>
-  <si>
-    <t>0.159+/-0.023</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.076+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.001</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.841+/-0.018</t>
-  </si>
-  <si>
-    <t>0.568+/-0.1</t>
-  </si>
-  <si>
-    <t>0.069+/-0.004</t>
-  </si>
-  <si>
-    <t>0.037+/-0.008</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>14.104+/-1.273</t>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.808+/-0.029</t>
+  </si>
+  <si>
+    <t>0.382+/-0.044</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.317+/-0.023</t>
+  </si>
+  <si>
+    <t>0.156+/-0.024</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.106+/-0.003</t>
+  </si>
+  <si>
+    <t>0.737+/-0.001</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.833+/-0.025</t>
+  </si>
+  <si>
+    <t>0.551+/-0.12</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.062+/-0.003</t>
+  </si>
+  <si>
+    <t>0.034+/-0.006</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>20.921+/-1.822</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
   </si>
   <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.377+/-0.05</t>
-  </si>
-  <si>
-    <t>0.361</t>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.414+/-0.049</t>
+  </si>
+  <si>
+    <t>0.379</t>
   </si>
   <si>
     <t>0.99+/-0.001</t>
   </si>
   <si>
-    <t>0.157+/-0.02</t>
-  </si>
-  <si>
-    <t>0.145</t>
+    <t>0.182+/-0.021</t>
+  </si>
+  <si>
+    <t>0.168</t>
   </si>
   <si>
     <t>0.695+/-0.001</t>
   </si>
   <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576+/-0.015</t>
-  </si>
-  <si>
-    <t>0.54+/-0.165</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>0.035+/-0.004</t>
-  </si>
-  <si>
-    <t>0.033+/-0.013</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.06+/-0.014</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.649+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.389+/-0.004</t>
-  </si>
-  <si>
-    <t>0.385+/-0.028</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.235+/-0.005</t>
-  </si>
-  <si>
-    <t>0.232+/-0.019</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.614+/-0.002</t>
-  </si>
-  <si>
-    <t>0.613+/-0.0</t>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.578+/-0.018</t>
+  </si>
+  <si>
+    <t>0.556+/-0.119</t>
+  </si>
+  <si>
+    <t>0.036+/-0.004</t>
+  </si>
+  <si>
+    <t>0.034+/-0.009</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.111+/-0.044</t>
+  </si>
+  <si>
+    <t>0.648+/-0.003</t>
+  </si>
+  <si>
+    <t>0.645+/-0.0</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.383+/-0.005</t>
+  </si>
+  <si>
+    <t>0.377+/-0.025</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.235+/-0.004</t>
+  </si>
+  <si>
+    <t>0.232+/-0.025</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.618+/-0.002</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
   </si>
   <si>
     <t>0.61</t>
   </si>
   <si>
-    <t>0.364+/-0.003</t>
-  </si>
-  <si>
-    <t>0.362+/-0.021</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.337+/-0.007</t>
-  </si>
-  <si>
-    <t>0.335+/-0.022</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.735+/-0.009</t>
+    <t>0.371+/-0.003</t>
+  </si>
+  <si>
+    <t>0.371+/-0.021</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.343+/-0.007</t>
+  </si>
+  <si>
+    <t>0.342+/-0.02</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.742+/-0.009</t>
   </si>
   <si>
     <t>0.669+/-0.0</t>
   </si>
   <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.711+/-0.032</t>
-  </si>
-  <si>
-    <t>0.388+/-0.051</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.236+/-0.042</t>
-  </si>
-  <si>
-    <t>0.127+/-0.022</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>2.626+/-0.564</t>
-  </si>
-  <si>
-    <t>0.761+/-0.006</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.827+/-0.045</t>
-  </si>
-  <si>
-    <t>0.378+/-0.053</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.286+/-0.032</t>
-  </si>
-  <si>
-    <t>0.13+/-0.027</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.056+/-0.005</t>
-  </si>
-  <si>
-    <t>0.74+/-0.005</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.715+/-0.034</t>
+  </si>
+  <si>
+    <t>0.399+/-0.032</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.272+/-0.05</t>
+  </si>
+  <si>
+    <t>0.149+/-0.03</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>8.649+/-2.121</t>
+  </si>
+  <si>
+    <t>0.76+/-0.006</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.83+/-0.056</t>
+  </si>
+  <si>
+    <t>0.373+/-0.048</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.285+/-0.039</t>
+  </si>
+  <si>
+    <t>0.134+/-0.036</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.091+/-0.02</t>
+  </si>
+  <si>
+    <t>0.739+/-0.006</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
   </si>
   <si>
     <t>0.685</t>
   </si>
   <si>
-    <t>0.797+/-0.042</t>
-  </si>
-  <si>
-    <t>0.395+/-0.068</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.213+/-0.033</t>
-  </si>
-  <si>
-    <t>0.111+/-0.031</t>
-  </si>
-  <si>
-    <t>0.106</t>
-  </si>
-  <si>
-    <t>0.068+/-0.003</t>
+    <t>0.78+/-0.051</t>
+  </si>
+  <si>
+    <t>0.4+/-0.058</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.219+/-0.044</t>
+  </si>
+  <si>
+    <t>0.12+/-0.023</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.103+/-0.006</t>
   </si>
   <si>
     <t>0.703+/-0.001</t>
   </si>
   <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.917+/-0.014</t>
-  </si>
-  <si>
-    <t>0.638+/-0.121</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.038+/-0.003</t>
-  </si>
-  <si>
-    <t>0.021+/-0.005</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>13.774+/-0.097</t>
+    <t>0.89+/-0.02</t>
+  </si>
+  <si>
+    <t>0.654+/-0.131</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.043+/-0.003</t>
+  </si>
+  <si>
+    <t>0.026+/-0.008</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>22.791+/-2.069</t>
   </si>
 </sst>
 </file>
@@ -1386,28 +1395,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
         <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1418,28 +1427,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1450,28 +1459,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1482,28 +1491,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1514,28 +1523,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1546,28 +1555,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1578,28 +1587,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1610,28 +1619,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1642,28 +1651,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1671,31 +1680,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1745,31 +1754,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1777,31 +1786,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1809,31 +1818,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1844,28 +1853,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1876,28 +1885,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1908,28 +1917,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1940,28 +1949,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1972,28 +1981,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2004,28 +2013,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2033,31 +2042,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2107,31 +2116,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2139,31 +2148,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2171,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2206,28 +2215,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2238,28 +2247,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2270,28 +2279,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2302,28 +2311,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2334,28 +2343,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2366,28 +2375,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2395,31 +2404,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2469,31 +2478,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2501,31 +2510,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2533,31 +2542,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2568,28 +2577,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2600,28 +2609,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2632,28 +2641,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2664,28 +2673,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2696,28 +2705,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2728,28 +2737,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2757,31 +2766,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
